--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0721B3A-3814-6645-ACCF-EE7AC76A79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60447C-9B7A-3B4F-B541-A498308853EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="229">
   <si>
     <t>Age</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>xenograft tumor of HCT116 cells</t>
-  </si>
-  <si>
-    <t>Study ID</t>
   </si>
   <si>
     <t>Tracer Group Name</t>
@@ -1270,44 +1267,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1333,36 +1324,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="7">
         <v>44355</v>
@@ -1370,16 +1361,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="7">
         <v>44034</v>
@@ -1406,35 +1397,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1475,19 +1466,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -1499,13 +1490,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1516,13 +1507,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1533,13 +1524,13 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1550,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1567,13 +1558,13 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1584,13 +1575,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
-        <v>173</v>
-      </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1625,21 +1616,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>25</v>
@@ -1647,46 +1638,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1711,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1729,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1747,10 +1738,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,7 +1761,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -1805,7 +1796,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -1840,7 +1831,7 @@
         <v>27.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -4810,7 +4801,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>20</v>
@@ -4825,7 +4816,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -11314,7 +11305,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12622,7 +12613,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13654,19 +13645,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -13689,7 +13680,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -13703,7 +13694,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -13711,16 +13702,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -13728,16 +13719,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -13745,16 +13736,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -13781,25 +13772,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -13810,10 +13801,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -13830,10 +13821,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -13850,10 +13841,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -13870,10 +13861,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -13890,10 +13881,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -13902,7 +13893,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -13910,10 +13901,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -13922,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -13930,10 +13921,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -13942,7 +13933,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -13950,10 +13941,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -13962,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -13970,10 +13961,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -13982,7 +13973,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -13990,10 +13981,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -14002,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -14034,16 +14025,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -14056,237 +14047,237 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>124</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>134</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>148</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>149</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
         <v>151</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>152</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>153</v>
-      </c>
-      <c r="D14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>157</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -14298,7 +14289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14310,13 +14301,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
@@ -14324,16 +14315,16 @@
     </row>
     <row r="2" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60447C-9B7A-3B4F-B541-A498308853EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E661EC4-7BE4-DF47-8EA0-AB86E7F3D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
@@ -329,9 +329,6 @@
     <t>Tracer Concentration</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -626,9 +623,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>Sequences</t>
-  </si>
-  <si>
     <t>Peak Annotation Files</t>
   </si>
   <si>
@@ -638,9 +632,6 @@
     <t>LC Protocol Name</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>QE2</t>
   </si>
   <si>
@@ -665,9 +656,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
-  </si>
-  <si>
     <t>Tracer Row Group</t>
   </si>
   <si>
@@ -735,6 +723,18 @@
   </si>
   <si>
     <t>This method involves the analysis of polar metabolites using HILIC on Waters Amide columns with basic buffer, coupled with high resolution mass spectrometry</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
+  </si>
+  <si>
+    <t>MS Runs</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1279,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>48</v>
@@ -1311,7 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1324,36 +1326,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="E2" s="7">
         <v>44355</v>
@@ -1361,16 +1363,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="E3" s="7">
         <v>44034</v>
@@ -1386,7 +1388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1397,35 +1401,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1440,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
           <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$9999</xm:f>
+            <xm:f>'MS Runs'!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
@@ -1450,7 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1466,19 +1472,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K1" s="14"/>
     </row>
@@ -1490,13 +1496,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1507,13 +1513,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1524,13 +1530,13 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1541,13 +1547,13 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1558,13 +1564,13 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -1575,13 +1581,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
       </c>
-      <c r="D7" t="s">
-        <v>172</v>
-      </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1597,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
           <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$9999</xm:f>
+            <xm:f>'MS Runs'!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>A1 E2:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -1605,7 +1611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1616,21 +1624,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>25</v>
@@ -1638,46 +1646,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1720,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1738,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1769,7 @@
         <v>26.4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G2" s="4">
         <v>0.1</v>
@@ -1796,7 +1804,7 @@
         <v>27.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G3" s="4">
         <v>0.1</v>
@@ -1831,7 +1839,7 @@
         <v>27.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G4" s="4">
         <v>0.1</v>
@@ -4801,7 +4809,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>20</v>
@@ -4816,7 +4824,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -11305,7 +11313,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12613,7 +12621,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13645,13 +13653,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -13680,7 +13688,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -13694,7 +13702,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -13702,16 +13710,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -13719,16 +13727,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -13736,16 +13744,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -13757,7 +13765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13772,25 +13782,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -13801,10 +13811,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -13821,10 +13831,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -13841,10 +13851,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -13861,10 +13871,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -13881,10 +13891,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -13893,7 +13903,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -13901,10 +13911,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -13913,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -13921,10 +13931,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -13933,7 +13943,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -13941,10 +13951,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -13953,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -13961,10 +13971,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -13973,7 +13983,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -13981,10 +13991,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -13993,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
@@ -14025,16 +14035,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -14047,237 +14057,237 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
         <v>125</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
         <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
         <v>138</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
         <v>142</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>144</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
         <v>146</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
         <v>150</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>151</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -14301,13 +14311,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
@@ -14315,16 +14325,16 @@
     </row>
     <row r="2" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E661EC4-7BE4-DF47-8EA0-AB86E7F3D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6116123-53FD-4E45-9127-68B6098ABB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="230">
   <si>
     <t>Age</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>MS Runs</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -13640,7 +13643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13658,8 +13663,8 @@
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>184</v>
+      <c r="C1" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -13765,8 +13770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13799,7 +13804,7 @@
       <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H1" s="1"/>

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6116123-53FD-4E45-9127-68B6098ABB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAD962-816E-6E44-9076-A848716F1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
@@ -734,10 +734,10 @@
     <t>MS Run</t>
   </si>
   <si>
-    <t>MS Runs</t>
-  </si>
-  <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Sequences</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1443,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
           <x14:formula1>
-            <xm:f>'MS Runs'!$A$2:$A$9999</xm:f>
+            <xm:f>Sequences!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
@@ -1600,7 +1600,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
           <x14:formula1>
-            <xm:f>'MS Runs'!$A$2:$A$9999</xm:f>
+            <xm:f>Sequences!$A$2:$A$9999</xm:f>
           </x14:formula1>
           <xm:sqref>A1 E2:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>159</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>158</v>
@@ -13643,7 +13643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -13664,7 +13664,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAD962-816E-6E44-9076-A848716F1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363538CC-A6FB-AF4A-A7DD-4E81CD595D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -728,9 +728,6 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>Sequences</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>176</v>
@@ -1614,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E98A77-02BD-684D-92F1-1DDAA652A830}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>159</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>158</v>
@@ -13664,7 +13664,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363538CC-A6FB-AF4A-A7DD-4E81CD595D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746FB1DD-779D-F648-8831-2885D7C8EFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -725,9 +725,6 @@
     <t>This method involves the analysis of polar metabolites using HILIC on Waters Amide columns with basic buffer, coupled with high resolution mass spectrometry</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>176</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>159</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>158</v>
@@ -13664,7 +13664,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746FB1DD-779D-F648-8831-2885D7C8EFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B9D48-03AA-EB48-B84E-5A10BEB9E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -725,9 +725,6 @@
     <t>This method involves the analysis of polar metabolites using HILIC on Waters Amide columns with basic buffer, coupled with high resolution mass spectrometry</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1457,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1484,7 @@
         <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>176</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>159</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>158</v>
@@ -13664,7 +13664,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>

--- a/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/study_v3.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B9D48-03AA-EB48-B84E-5A10BEB9E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94551C4-AFB8-4C4E-8A67-DB1A44C2D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="7700" windowWidth="38360" windowHeight="13720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
-    <sheet name="Animals" sheetId="1" r:id="rId2"/>
-    <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="Treatments" sheetId="3" r:id="rId4"/>
-    <sheet name="Tissues" sheetId="4" r:id="rId5"/>
-    <sheet name="Infusates" sheetId="6" r:id="rId6"/>
-    <sheet name="Tracers" sheetId="7" r:id="rId7"/>
-    <sheet name="Compounds" sheetId="8" r:id="rId8"/>
-    <sheet name="LC Protocols" sheetId="13" r:id="rId9"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
-    <sheet name="Peak Annotation Files" sheetId="12" r:id="rId11"/>
-    <sheet name="Peak Annotation Details" sheetId="9" r:id="rId12"/>
+    <sheet name="Tracers" sheetId="7" r:id="rId2"/>
+    <sheet name="Infusates" sheetId="6" r:id="rId3"/>
+    <sheet name="Animals" sheetId="1" r:id="rId4"/>
+    <sheet name="Samples" sheetId="2" r:id="rId5"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId6"/>
+    <sheet name="Peak Annotation Files" sheetId="12" r:id="rId7"/>
+    <sheet name="Peak Annotation Details" sheetId="9" r:id="rId8"/>
+    <sheet name="Treatments" sheetId="3" r:id="rId9"/>
+    <sheet name="Tissues" sheetId="4" r:id="rId10"/>
+    <sheet name="Compounds" sheetId="8" r:id="rId11"/>
+    <sheet name="LC Protocols" sheetId="13" r:id="rId12"/>
     <sheet name="Defaults" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -1272,7 +1272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1CB6C-4DC0-0447-B275-8BB498789B61}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1311,302 +1313,1653 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V1000"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39F497-FE84-8D4F-A6F8-8092601ED9B6}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A16" sqref="A16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>228</v>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="7">
-        <v>44355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44034</v>
+        <v>104</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
-          <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$9999</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+    <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" t="s">
-        <v>196</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="15">
+        <v>25</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
-          <x14:formula1>
-            <xm:f>Sequences!$A$2:$A$9999</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1 E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1615,7 +2968,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1698,12 +3051,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="D19" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048567"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4784,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1048426"/>
   <sheetViews>
@@ -11268,7 +13004,307 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C6601-13DF-A246-A06D-0D094CDDF538}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="43.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8236A626-A31D-6D4A-BDF3-4C2E37787CF8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC3F7EA2-A21F-974C-966F-6B514DCC32CF}">
+          <x14:formula1>
+            <xm:f>Sequences!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E47295-2681-5A40-8A8D-DC3FAC0C389C}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98B7CB3E-67C8-1C41-B282-92397C45008F}">
+          <x14:formula1>
+            <xm:f>Sequences!$A$2:$A$9999</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1 E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
@@ -12321,2038 +14357,4 @@
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V1000"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-    <sortCondition ref="A2:A36"/>
-  </sortState>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E67618-BD12-9F48-A292-71408D478752}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F6D56-CCFC-AC49-A2E8-14B9C4C2FDA8}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D19" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39F497-FE84-8D4F-A6F8-8092601ED9B6}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6B7B7-1799-7447-8892-685572B624F5}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="15">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>